--- a/BackLog Produto/BACKLOG_SPRINTS_DAILY_RETROSPECTIVA(1).xlsx
+++ b/BackLog Produto/BACKLOG_SPRINTS_DAILY_RETROSPECTIVA(1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erione Technologies\Pim-Terceiro-Semestre-1\BackLog Produto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E1A06DA-8CAB-4959-A614-9FD2A5D283A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA1E7C81-7CF3-4EC5-927B-116E5320784E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{382B0824-085F-46F6-8F9B-52819645303C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{382B0824-085F-46F6-8F9B-52819645303C}"/>
   </bookViews>
   <sheets>
     <sheet name="BACKLOG" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="259">
   <si>
     <t>PLANEJAMENTO</t>
   </si>
@@ -995,6 +995,75 @@
   </si>
   <si>
     <t>ENCARREGADO DO CICLO DE DESENVOLVIMENTO DE VIDA DO SOFTWARE</t>
+  </si>
+  <si>
+    <t>SEM IMPEDIMENTO - FINALIZAÇÃO DO PROTÓTIPO DE TELA</t>
+  </si>
+  <si>
+    <t>SEM IMPEDIMENTO - SCRIPT DE CRIAÇÃO DO BANCO DE DADOS</t>
+  </si>
+  <si>
+    <t>SEM IMPEDIMENTO - CICLO DE DESENVOLVIMENTO DE VIDA DO SOFTWARE</t>
+  </si>
+  <si>
+    <t>FERIADO</t>
+  </si>
+  <si>
+    <t>Sprints</t>
+  </si>
+  <si>
+    <t>Planejado</t>
+  </si>
+  <si>
+    <t>Feito</t>
+  </si>
+  <si>
+    <t>Gráfico de Burndown Sprint 5</t>
+  </si>
+  <si>
+    <t>atividade</t>
+  </si>
+  <si>
+    <t>atividade 3</t>
+  </si>
+  <si>
+    <t>atividade 4</t>
+  </si>
+  <si>
+    <t>Total de horas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">atividade T1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">atividade T2 </t>
+  </si>
+  <si>
+    <t>Restante</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estimado </t>
+  </si>
+  <si>
+    <t>Dia1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dia 2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dia 3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dia 4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dia 5 </t>
+  </si>
+  <si>
+    <t>Dia 6</t>
+  </si>
+  <si>
+    <t>Dia 7</t>
   </si>
 </sst>
 </file>
@@ -1170,7 +1239,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="46">
+  <borders count="48">
     <border>
       <left/>
       <right/>
@@ -1745,11 +1814,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -1937,6 +2032,13 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="44" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="45" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="46" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2012,12 +2114,6 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2025,6 +2121,37 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2045,472 +2172,6 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="pt-BR"/>
-              <a:t>Gráfico Burndown Sprint 5</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>[1]Planilha1!$F$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Base Line</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>[1]Planilha1!$E$3:$E$10</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>dia 0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>dia 1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>dia 2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>dia 3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>dia 4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>dia 5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>dia 6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>dia 7</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>[1]Planilha1!$F$3:$F$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.7142857140000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.4285714279999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.142857142</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.85714285599999995</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.57142857000000002</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.28571428399999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7DA0-4F63-AE62-0EA0F73BF7F1}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>[1]Planilha1!$G$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Realizado</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>[1]Planilha1!$E$3:$E$10</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>dia 0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>dia 1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>dia 2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>dia 3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>dia 4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>dia 5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>dia 6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>dia 7</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>[1]Planilha1!$G$3:$G$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-7DA0-4F63-AE62-0EA0F73BF7F1}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="1599167839"/>
-        <c:axId val="1599168319"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1599167839"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1599168319"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1599168319"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1599167839"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="pt-BR"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
@@ -3569,6 +3230,925 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>BURNDOWN!$C$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Base Line</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>BURNDOWN!$B$7:$B$14</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>dia 0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>dia 1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>dia 2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>dia 3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>dia 4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>dia 5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>dia 6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>dia 7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>BURNDOWN!$C$7:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A580-4AB2-B29A-7365F6028A40}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>BURNDOWN!$D$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Realizado</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>BURNDOWN!$B$7:$B$14</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>dia 0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>dia 1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>dia 2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>dia 3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>dia 4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>dia 5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>dia 6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>dia 7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>BURNDOWN!$D$7:$D$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A580-4AB2-B29A-7365F6028A40}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="598377071"/>
+        <c:axId val="598359311"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="598377071"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="598359311"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="598359311"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="598377071"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>BURNDOWN!$C$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Planejado</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>BURNDOWN!$B$28:$B$36</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>abr/29</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>abr/30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>mai/01</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>mai/02</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>mai/03</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>mai/04</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>mai/05</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>mai/06</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Realizado</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>BURNDOWN!$C$28:$C$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D69E-422F-A686-D4B8AB41D0B4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>BURNDOWN!$D$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Feito</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>BURNDOWN!$B$28:$B$36</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>abr/29</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>abr/30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>mai/01</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>mai/02</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>mai/03</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>mai/04</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>mai/05</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>mai/06</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Realizado</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>BURNDOWN!$D$28:$D$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D69E-422F-A686-D4B8AB41D0B4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1543996000"/>
+        <c:axId val="1543975360"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1543996000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1543975360"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1543975360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1543996000"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3610,6 +4190,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4166,6 +4786,509 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4685,44 +5808,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>179387</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>26987</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9700D9E-620F-4613-9B04-5E711117C1F7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>306386</xdr:colOff>
       <xdr:row>39</xdr:row>
@@ -4753,7 +5838,79 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>536575</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{959EE3EA-90B3-BF36-8556-374B1160BC6D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>536575</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CC270E4-60FD-7377-7D0C-B107885F2010}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4776,97 +5933,6 @@
         <row r="2">
           <cell r="F2" t="str">
             <v>Base Line</v>
-          </cell>
-          <cell r="G2" t="str">
-            <v>Realizado</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="E3" t="str">
-            <v>dia 0</v>
-          </cell>
-          <cell r="F3">
-            <v>2</v>
-          </cell>
-          <cell r="G3">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="E4" t="str">
-            <v>dia 1</v>
-          </cell>
-          <cell r="F4">
-            <v>1.7142857140000001</v>
-          </cell>
-          <cell r="G4">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="E5" t="str">
-            <v>dia 2</v>
-          </cell>
-          <cell r="F5">
-            <v>1.4285714279999999</v>
-          </cell>
-          <cell r="G5">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="E6" t="str">
-            <v>dia 3</v>
-          </cell>
-          <cell r="F6">
-            <v>1.142857142</v>
-          </cell>
-          <cell r="G6">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="E7" t="str">
-            <v>dia 4</v>
-          </cell>
-          <cell r="F7">
-            <v>0.85714285599999995</v>
-          </cell>
-          <cell r="G7">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="E8" t="str">
-            <v>dia 5</v>
-          </cell>
-          <cell r="F8">
-            <v>0.57142857000000002</v>
-          </cell>
-          <cell r="G8">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="E9" t="str">
-            <v>dia 6</v>
-          </cell>
-          <cell r="F9">
-            <v>0.28571428399999999</v>
-          </cell>
-          <cell r="G9">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="E10" t="str">
-            <v>dia 7</v>
-          </cell>
-          <cell r="F10">
-            <v>0</v>
-          </cell>
-          <cell r="G10">
-            <v>0</v>
           </cell>
         </row>
         <row r="36">
@@ -5850,69 +6916,69 @@
   <sheetData>
     <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="1:16" ht="21.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="99" t="s">
+      <c r="B2" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="100"/>
-      <c r="J2" s="101"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="105"/>
+      <c r="H2" s="105"/>
+      <c r="I2" s="105"/>
+      <c r="J2" s="106"/>
     </row>
     <row r="3" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="4" spans="1:16" ht="47" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B4" s="96" t="s">
+      <c r="B4" s="101" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="97"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="97"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="97"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="98"/>
-      <c r="L4" s="95" t="s">
+      <c r="C4" s="102"/>
+      <c r="D4" s="102"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="102"/>
+      <c r="G4" s="102"/>
+      <c r="H4" s="102"/>
+      <c r="I4" s="102"/>
+      <c r="J4" s="103"/>
+      <c r="L4" s="100" t="s">
         <v>168</v>
       </c>
-      <c r="M4" s="95"/>
-      <c r="N4" s="95"/>
-      <c r="O4" s="95"/>
-      <c r="P4" s="95"/>
+      <c r="M4" s="100"/>
+      <c r="N4" s="100"/>
+      <c r="O4" s="100"/>
+      <c r="P4" s="100"/>
     </row>
     <row r="5" spans="1:16" ht="8.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="32"/>
       <c r="J5" s="21"/>
-      <c r="L5" s="95"/>
-      <c r="M5" s="95"/>
-      <c r="N5" s="95"/>
-      <c r="O5" s="95"/>
-      <c r="P5" s="95"/>
+      <c r="L5" s="100"/>
+      <c r="M5" s="100"/>
+      <c r="N5" s="100"/>
+      <c r="O5" s="100"/>
+      <c r="P5" s="100"/>
     </row>
     <row r="6" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="86" t="s">
         <v>150</v>
       </c>
       <c r="J6" s="21"/>
-      <c r="L6" s="95"/>
-      <c r="M6" s="95"/>
-      <c r="N6" s="95"/>
-      <c r="O6" s="95"/>
-      <c r="P6" s="95"/>
+      <c r="L6" s="100"/>
+      <c r="M6" s="100"/>
+      <c r="N6" s="100"/>
+      <c r="O6" s="100"/>
+      <c r="P6" s="100"/>
     </row>
     <row r="7" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="87" t="s">
         <v>166</v>
       </c>
       <c r="J7" s="21"/>
-      <c r="L7" s="95"/>
-      <c r="M7" s="95"/>
-      <c r="N7" s="95"/>
-      <c r="O7" s="95"/>
-      <c r="P7" s="95"/>
+      <c r="L7" s="100"/>
+      <c r="M7" s="100"/>
+      <c r="N7" s="100"/>
+      <c r="O7" s="100"/>
+      <c r="P7" s="100"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B8" s="88" t="s">
@@ -6408,12 +7474,12 @@
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
-      <c r="G33" s="108" t="s">
+      <c r="G33" s="113" t="s">
         <v>66</v>
       </c>
-      <c r="H33" s="109"/>
-      <c r="I33" s="109"/>
-      <c r="J33" s="110"/>
+      <c r="H33" s="114"/>
+      <c r="I33" s="114"/>
+      <c r="J33" s="115"/>
     </row>
     <row r="34" spans="2:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C34" s="5"/>
@@ -6438,10 +7504,10 @@
         <v>81</v>
       </c>
       <c r="H35" s="28"/>
-      <c r="I35" s="102" t="s">
+      <c r="I35" s="107" t="s">
         <v>80</v>
       </c>
-      <c r="J35" s="103"/>
+      <c r="J35" s="108"/>
     </row>
     <row r="36" spans="2:10" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C36" s="5"/>
@@ -6452,8 +7518,8 @@
         <v>82</v>
       </c>
       <c r="H36" s="28"/>
-      <c r="I36" s="104"/>
-      <c r="J36" s="105"/>
+      <c r="I36" s="109"/>
+      <c r="J36" s="110"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C37" s="5"/>
@@ -6464,8 +7530,8 @@
         <v>69</v>
       </c>
       <c r="H37" s="28"/>
-      <c r="I37" s="104"/>
-      <c r="J37" s="105"/>
+      <c r="I37" s="109"/>
+      <c r="J37" s="110"/>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C38" s="5"/>
@@ -6476,8 +7542,8 @@
         <v>70</v>
       </c>
       <c r="H38" s="28"/>
-      <c r="I38" s="104"/>
-      <c r="J38" s="105"/>
+      <c r="I38" s="109"/>
+      <c r="J38" s="110"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C39" s="5"/>
@@ -6488,8 +7554,8 @@
         <v>71</v>
       </c>
       <c r="H39" s="28"/>
-      <c r="I39" s="104"/>
-      <c r="J39" s="105"/>
+      <c r="I39" s="109"/>
+      <c r="J39" s="110"/>
     </row>
     <row r="40" spans="2:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C40" s="5"/>
@@ -6500,8 +7566,8 @@
         <v>72</v>
       </c>
       <c r="H40" s="28"/>
-      <c r="I40" s="106"/>
-      <c r="J40" s="107"/>
+      <c r="I40" s="111"/>
+      <c r="J40" s="112"/>
     </row>
     <row r="41" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C41" s="5"/>
@@ -6581,7 +7647,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E39882E-15E1-49D7-8705-F56E6D1328C9}">
   <dimension ref="C1:K71"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A20" workbookViewId="0">
       <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
@@ -6603,12 +7669,12 @@
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
-      <c r="H2" s="108" t="s">
+      <c r="H2" s="113" t="s">
         <v>66</v>
       </c>
-      <c r="I2" s="109"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="110"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="114"/>
+      <c r="K2" s="115"/>
     </row>
     <row r="3" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D3" s="5"/>
@@ -6633,10 +7699,10 @@
         <v>81</v>
       </c>
       <c r="I4" s="28"/>
-      <c r="J4" s="102" t="s">
+      <c r="J4" s="107" t="s">
         <v>80</v>
       </c>
-      <c r="K4" s="103"/>
+      <c r="K4" s="108"/>
     </row>
     <row r="5" spans="3:11" ht="29" x14ac:dyDescent="0.35">
       <c r="D5" s="5"/>
@@ -6647,8 +7713,8 @@
         <v>82</v>
       </c>
       <c r="I5" s="28"/>
-      <c r="J5" s="104"/>
-      <c r="K5" s="105"/>
+      <c r="J5" s="109"/>
+      <c r="K5" s="110"/>
     </row>
     <row r="6" spans="3:11" x14ac:dyDescent="0.35">
       <c r="D6" s="5"/>
@@ -6659,8 +7725,8 @@
         <v>69</v>
       </c>
       <c r="I6" s="28"/>
-      <c r="J6" s="104"/>
-      <c r="K6" s="105"/>
+      <c r="J6" s="109"/>
+      <c r="K6" s="110"/>
     </row>
     <row r="7" spans="3:11" x14ac:dyDescent="0.35">
       <c r="D7" s="5"/>
@@ -6671,8 +7737,8 @@
         <v>70</v>
       </c>
       <c r="I7" s="28"/>
-      <c r="J7" s="104"/>
-      <c r="K7" s="105"/>
+      <c r="J7" s="109"/>
+      <c r="K7" s="110"/>
     </row>
     <row r="8" spans="3:11" x14ac:dyDescent="0.35">
       <c r="D8" s="5"/>
@@ -6683,8 +7749,8 @@
         <v>71</v>
       </c>
       <c r="I8" s="28"/>
-      <c r="J8" s="104"/>
-      <c r="K8" s="105"/>
+      <c r="J8" s="109"/>
+      <c r="K8" s="110"/>
     </row>
     <row r="9" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D9" s="5"/>
@@ -6695,8 +7761,8 @@
         <v>72</v>
       </c>
       <c r="I9" s="28"/>
-      <c r="J9" s="106"/>
-      <c r="K9" s="107"/>
+      <c r="J9" s="111"/>
+      <c r="K9" s="112"/>
     </row>
     <row r="10" spans="3:11" x14ac:dyDescent="0.35">
       <c r="D10" s="5"/>
@@ -6734,16 +7800,16 @@
       <c r="H14" s="5"/>
     </row>
     <row r="15" spans="3:11" ht="29" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C15" s="114" t="s">
+      <c r="C15" s="119" t="s">
         <v>62</v>
       </c>
-      <c r="D15" s="115"/>
-      <c r="E15" s="115"/>
-      <c r="F15" s="115"/>
-      <c r="G15" s="115"/>
-      <c r="H15" s="115"/>
-      <c r="I15" s="115"/>
-      <c r="J15" s="116"/>
+      <c r="D15" s="120"/>
+      <c r="E15" s="120"/>
+      <c r="F15" s="120"/>
+      <c r="G15" s="120"/>
+      <c r="H15" s="120"/>
+      <c r="I15" s="120"/>
+      <c r="J15" s="121"/>
     </row>
     <row r="16" spans="3:11" x14ac:dyDescent="0.35">
       <c r="D16" s="5"/>
@@ -6768,16 +7834,16 @@
     </row>
     <row r="19" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="20" spans="3:11" ht="19" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C20" s="111" t="s">
+      <c r="C20" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="112"/>
-      <c r="E20" s="112"/>
-      <c r="F20" s="112"/>
-      <c r="G20" s="112"/>
-      <c r="H20" s="112"/>
-      <c r="I20" s="112"/>
-      <c r="J20" s="113"/>
+      <c r="D20" s="117"/>
+      <c r="E20" s="117"/>
+      <c r="F20" s="117"/>
+      <c r="G20" s="117"/>
+      <c r="H20" s="117"/>
+      <c r="I20" s="117"/>
+      <c r="J20" s="118"/>
     </row>
     <row r="21" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C21" s="32"/>
@@ -6920,16 +7986,16 @@
     </row>
     <row r="29" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="30" spans="3:11" ht="19" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C30" s="111" t="s">
+      <c r="C30" s="116" t="s">
         <v>17</v>
       </c>
-      <c r="D30" s="112"/>
-      <c r="E30" s="112"/>
-      <c r="F30" s="112"/>
-      <c r="G30" s="112"/>
-      <c r="H30" s="112"/>
-      <c r="I30" s="112"/>
-      <c r="J30" s="113"/>
+      <c r="D30" s="117"/>
+      <c r="E30" s="117"/>
+      <c r="F30" s="117"/>
+      <c r="G30" s="117"/>
+      <c r="H30" s="117"/>
+      <c r="I30" s="117"/>
+      <c r="J30" s="118"/>
     </row>
     <row r="31" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C31" s="32"/>
@@ -7048,16 +8114,16 @@
     </row>
     <row r="38" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="39" spans="3:10" ht="19" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C39" s="111" t="s">
+      <c r="C39" s="116" t="s">
         <v>74</v>
       </c>
-      <c r="D39" s="112"/>
-      <c r="E39" s="112"/>
-      <c r="F39" s="112"/>
-      <c r="G39" s="112"/>
-      <c r="H39" s="112"/>
-      <c r="I39" s="112"/>
-      <c r="J39" s="113"/>
+      <c r="D39" s="117"/>
+      <c r="E39" s="117"/>
+      <c r="F39" s="117"/>
+      <c r="G39" s="117"/>
+      <c r="H39" s="117"/>
+      <c r="I39" s="117"/>
+      <c r="J39" s="118"/>
     </row>
     <row r="40" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C40" s="32"/>
@@ -7153,16 +8219,16 @@
     </row>
     <row r="46" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="47" spans="3:10" ht="19" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C47" s="111" t="s">
+      <c r="C47" s="116" t="s">
         <v>79</v>
       </c>
-      <c r="D47" s="112"/>
-      <c r="E47" s="112"/>
-      <c r="F47" s="112"/>
-      <c r="G47" s="112"/>
-      <c r="H47" s="112"/>
-      <c r="I47" s="112"/>
-      <c r="J47" s="113"/>
+      <c r="D47" s="117"/>
+      <c r="E47" s="117"/>
+      <c r="F47" s="117"/>
+      <c r="G47" s="117"/>
+      <c r="H47" s="117"/>
+      <c r="I47" s="117"/>
+      <c r="J47" s="118"/>
     </row>
     <row r="48" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C48" s="32"/>
@@ -7284,16 +8350,16 @@
     </row>
     <row r="55" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="56" spans="3:10" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C56" s="111" t="s">
+      <c r="C56" s="116" t="s">
         <v>103</v>
       </c>
-      <c r="D56" s="112"/>
-      <c r="E56" s="112"/>
-      <c r="F56" s="112"/>
-      <c r="G56" s="112"/>
-      <c r="H56" s="112"/>
-      <c r="I56" s="112"/>
-      <c r="J56" s="113"/>
+      <c r="D56" s="117"/>
+      <c r="E56" s="117"/>
+      <c r="F56" s="117"/>
+      <c r="G56" s="117"/>
+      <c r="H56" s="117"/>
+      <c r="I56" s="117"/>
+      <c r="J56" s="118"/>
     </row>
     <row r="57" spans="3:10" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C57" s="32"/>
@@ -7389,16 +8455,16 @@
     </row>
     <row r="64" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="65" spans="3:10" ht="19" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C65" s="111" t="s">
+      <c r="C65" s="116" t="s">
         <v>169</v>
       </c>
-      <c r="D65" s="112"/>
-      <c r="E65" s="112"/>
-      <c r="F65" s="112"/>
-      <c r="G65" s="112"/>
-      <c r="H65" s="112"/>
-      <c r="I65" s="112"/>
-      <c r="J65" s="113"/>
+      <c r="D65" s="117"/>
+      <c r="E65" s="117"/>
+      <c r="F65" s="117"/>
+      <c r="G65" s="117"/>
+      <c r="H65" s="117"/>
+      <c r="I65" s="117"/>
+      <c r="J65" s="118"/>
     </row>
     <row r="66" spans="3:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C66" s="32"/>
@@ -7510,10 +8576,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F53D959B-E411-475F-8D2F-46A6BAEF8854}">
-  <dimension ref="A1:C61"/>
+  <dimension ref="A1:C109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="C69" sqref="C69"/>
+    <sheetView topLeftCell="A73" zoomScale="94" workbookViewId="0">
+      <selection activeCell="C114" sqref="C114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7524,11 +8590,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="19" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="116" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="113"/>
+      <c r="B1" s="117"/>
+      <c r="C1" s="118"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="55" t="s">
@@ -7608,9 +8674,9 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="117"/>
-      <c r="B9" s="118"/>
-      <c r="C9" s="119"/>
+      <c r="A9" s="122"/>
+      <c r="B9" s="123"/>
+      <c r="C9" s="124"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="57">
@@ -8035,11 +9101,11 @@
     </row>
     <row r="53" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="54" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A54" s="122" t="s">
+      <c r="A54" s="125" t="s">
         <v>169</v>
       </c>
-      <c r="B54" s="123"/>
-      <c r="C54" s="124"/>
+      <c r="B54" s="126"/>
+      <c r="C54" s="127"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="61">
@@ -8108,9 +9174,441 @@
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A61" s="91"/>
-      <c r="B61" s="91"/>
-      <c r="C61" s="91"/>
+      <c r="A61" s="95"/>
+      <c r="B61" s="96"/>
+      <c r="C61" s="97"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A62" s="61">
+        <v>45413</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C62" s="58" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A63" s="61">
+        <v>45413</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C63" s="58" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A64" s="61">
+        <v>45413</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C64" s="58" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A65" s="61">
+        <v>45413</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C65" s="58" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A66" s="61">
+        <v>45413</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C66" s="58" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A67" s="63">
+        <v>45413</v>
+      </c>
+      <c r="B67" s="64" t="s">
+        <v>26</v>
+      </c>
+      <c r="C67" s="58" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A68" s="95"/>
+      <c r="B68" s="95"/>
+      <c r="C68" s="99"/>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A69" s="61">
+        <v>45414</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C69" s="58" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A70" s="61">
+        <v>45414</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C70" s="58" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A71" s="61">
+        <v>45414</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C71" s="58" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A72" s="61">
+        <v>45414</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C72" s="58" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A73" s="61">
+        <v>45414</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C73" s="58" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A74" s="63">
+        <v>45414</v>
+      </c>
+      <c r="B74" s="64" t="s">
+        <v>26</v>
+      </c>
+      <c r="C74" s="65" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A75" s="95"/>
+      <c r="B75" s="95"/>
+      <c r="C75" s="99"/>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A76" s="57">
+        <v>45415</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C76" s="58"/>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A77" s="57">
+        <v>45415</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C77" s="58"/>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A78" s="57">
+        <v>45415</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C78" s="58"/>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A79" s="57">
+        <v>45415</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C79" s="58"/>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A80" s="57">
+        <v>45415</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C80" s="58"/>
+    </row>
+    <row r="81" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A81" s="130">
+        <v>45415</v>
+      </c>
+      <c r="B81" s="64" t="s">
+        <v>26</v>
+      </c>
+      <c r="C81" s="65"/>
+    </row>
+    <row r="82" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A82" s="59"/>
+      <c r="B82" s="59"/>
+      <c r="C82" s="59"/>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A83" s="131">
+        <v>45418</v>
+      </c>
+      <c r="B83" s="132" t="s">
+        <v>18</v>
+      </c>
+      <c r="C83" s="133"/>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A84" s="57">
+        <v>45418</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C84" s="58"/>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A85" s="57">
+        <v>45418</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C85" s="58"/>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A86" s="57">
+        <v>45418</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C86" s="58"/>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A87" s="57">
+        <v>45418</v>
+      </c>
+      <c r="B87" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C87" s="58"/>
+    </row>
+    <row r="88" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A88" s="130">
+        <v>45418</v>
+      </c>
+      <c r="B88" s="64" t="s">
+        <v>26</v>
+      </c>
+      <c r="C88" s="65"/>
+    </row>
+    <row r="89" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A89" s="59"/>
+      <c r="B89" s="59"/>
+      <c r="C89" s="59"/>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A90" s="131">
+        <v>45419</v>
+      </c>
+      <c r="B90" s="132" t="s">
+        <v>18</v>
+      </c>
+      <c r="C90" s="133"/>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A91" s="57">
+        <v>45419</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C91" s="58"/>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A92" s="57">
+        <v>45419</v>
+      </c>
+      <c r="B92" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C92" s="58"/>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A93" s="57">
+        <v>45419</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C93" s="58"/>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A94" s="57">
+        <v>45419</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C94" s="58"/>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A95" s="57">
+        <v>45419</v>
+      </c>
+      <c r="B95" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C95" s="58"/>
+    </row>
+    <row r="96" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A96" s="134"/>
+      <c r="B96" s="134"/>
+      <c r="C96" s="135"/>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A97" s="131">
+        <v>45420</v>
+      </c>
+      <c r="B97" s="132" t="s">
+        <v>18</v>
+      </c>
+      <c r="C97" s="133"/>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A98" s="57">
+        <v>45420</v>
+      </c>
+      <c r="B98" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C98" s="58"/>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A99" s="57">
+        <v>45420</v>
+      </c>
+      <c r="B99" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C99" s="58"/>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A100" s="57">
+        <v>45420</v>
+      </c>
+      <c r="B100" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C100" s="58"/>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A101" s="57">
+        <v>45420</v>
+      </c>
+      <c r="B101" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C101" s="58"/>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A102" s="57">
+        <v>45420</v>
+      </c>
+      <c r="B102" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C102" s="58"/>
+    </row>
+    <row r="103" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A103" s="134"/>
+      <c r="B103" s="134"/>
+      <c r="C103" s="135"/>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A104" s="131">
+        <v>45421</v>
+      </c>
+      <c r="B104" s="132" t="s">
+        <v>18</v>
+      </c>
+      <c r="C104" s="133"/>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A105" s="57">
+        <v>45421</v>
+      </c>
+      <c r="B105" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C105" s="58"/>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A106" s="57">
+        <v>45421</v>
+      </c>
+      <c r="B106" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C106" s="58"/>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A107" s="57">
+        <v>45421</v>
+      </c>
+      <c r="B107" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C107" s="58"/>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A108" s="57">
+        <v>45421</v>
+      </c>
+      <c r="B108" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C108" s="58"/>
+    </row>
+    <row r="109" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A109" s="130">
+        <v>45421</v>
+      </c>
+      <c r="B109" s="64" t="s">
+        <v>26</v>
+      </c>
+      <c r="C109" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -8138,10 +9636,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="120" t="s">
+      <c r="A1" s="128" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="121"/>
+      <c r="B1" s="129"/>
       <c r="C1" s="69"/>
       <c r="D1" s="69"/>
       <c r="E1" s="69"/>
@@ -8195,16 +9693,18 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3E69F5A-B02F-42AF-8116-2B76A69569A0}">
-  <dimension ref="B1:G97"/>
+  <dimension ref="B1:K113"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="N102" sqref="N102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="7" max="7" width="25" customWidth="1"/>
-    <col min="8" max="8" width="34.6328125" customWidth="1"/>
+    <col min="3" max="3" width="11.26953125" customWidth="1"/>
+    <col min="4" max="4" width="13.1796875" customWidth="1"/>
+    <col min="7" max="7" width="6.26953125" customWidth="1"/>
+    <col min="8" max="8" width="9.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
@@ -8225,101 +9725,206 @@
       <c r="B7" t="s">
         <v>175</v>
       </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
+      <c r="C7" s="98">
+        <v>7</v>
+      </c>
+      <c r="D7" s="98">
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>176</v>
       </c>
-      <c r="C8" s="93">
-        <v>1.7142857140000001</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
+      <c r="C8" s="98">
+        <v>6</v>
+      </c>
+      <c r="D8" s="98">
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>177</v>
       </c>
-      <c r="C9">
-        <v>1.4285714279999999</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
+      <c r="C9" s="98">
+        <v>5</v>
+      </c>
+      <c r="D9" s="98">
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>178</v>
       </c>
-      <c r="C10" s="93">
-        <v>1.142857142</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
+      <c r="C10" s="98">
+        <v>4</v>
+      </c>
+      <c r="D10" s="98">
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>179</v>
       </c>
-      <c r="C11">
-        <v>0.85714285599999995</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
+      <c r="C11" s="98">
+        <v>3</v>
+      </c>
+      <c r="D11" s="98">
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>180</v>
       </c>
-      <c r="C12" s="93">
-        <v>0.57142857000000002</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
+      <c r="C12" s="98">
+        <v>2</v>
+      </c>
+      <c r="D12" s="98">
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>181</v>
       </c>
-      <c r="C13">
-        <v>0.28571428399999999</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
+      <c r="C13" s="98">
+        <v>1</v>
+      </c>
+      <c r="D13" s="98">
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>182</v>
       </c>
-      <c r="C14" s="93">
+      <c r="C14" s="98">
         <v>0</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="98">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.35">
       <c r="G17">
         <v>0.28571428571428498</v>
       </c>
     </row>
-    <row r="21" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G21">
-        <v>1.7142857140000001</v>
-      </c>
-    </row>
-    <row r="40" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B27" s="138" t="s">
+        <v>240</v>
+      </c>
+      <c r="C27" s="138" t="s">
+        <v>241</v>
+      </c>
+      <c r="D27" s="138" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B28" s="139">
+        <v>47209</v>
+      </c>
+      <c r="C28" s="138">
+        <v>40</v>
+      </c>
+      <c r="D28" s="138">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B29" s="139">
+        <v>11049</v>
+      </c>
+      <c r="C29" s="138">
+        <v>35</v>
+      </c>
+      <c r="D29" s="138">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B30" s="139">
+        <v>37012</v>
+      </c>
+      <c r="C30" s="138">
+        <v>30</v>
+      </c>
+      <c r="D30" s="138">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B31" s="139">
+        <v>37377</v>
+      </c>
+      <c r="C31" s="138">
+        <v>25</v>
+      </c>
+      <c r="D31" s="138">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B32" s="139">
+        <v>37742</v>
+      </c>
+      <c r="C32" s="138">
+        <v>20</v>
+      </c>
+      <c r="D32" s="138">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B33" s="139">
+        <v>38108</v>
+      </c>
+      <c r="C33" s="138">
+        <v>15</v>
+      </c>
+      <c r="D33" s="138">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B34" s="139">
+        <v>38473</v>
+      </c>
+      <c r="C34" s="138">
+        <v>10</v>
+      </c>
+      <c r="D34" s="138">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B35" s="139">
+        <v>38838</v>
+      </c>
+      <c r="C35" s="138">
+        <v>5</v>
+      </c>
+      <c r="D35" s="138">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B36" s="138" t="s">
+        <v>174</v>
+      </c>
+      <c r="C36" s="138">
+        <v>0</v>
+      </c>
+      <c r="D36" s="138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.35">
       <c r="D40" t="s">
         <v>173</v>
       </c>
@@ -8327,7 +9932,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="41" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C41" t="s">
         <v>175</v>
       </c>
@@ -8338,7 +9943,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C42" t="s">
         <v>176</v>
       </c>
@@ -8349,7 +9954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C43" t="s">
         <v>177</v>
       </c>
@@ -8360,7 +9965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C44" t="s">
         <v>178</v>
       </c>
@@ -8371,7 +9976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C45" t="s">
         <v>179</v>
       </c>
@@ -8382,7 +9987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C46" t="s">
         <v>180</v>
       </c>
@@ -8393,7 +9998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C47" t="s">
         <v>181</v>
       </c>
@@ -8404,7 +10009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C48" t="s">
         <v>182</v>
       </c>
@@ -8943,7 +10548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="97" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C97" t="s">
         <v>231</v>
       </c>
@@ -8954,7 +10559,92 @@
         <v>0</v>
       </c>
     </row>
+    <row r="105" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C105" s="140" t="s">
+        <v>243</v>
+      </c>
+      <c r="D105" s="140"/>
+      <c r="E105" s="140"/>
+      <c r="F105" s="140"/>
+      <c r="G105" s="140"/>
+    </row>
+    <row r="107" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C107" t="s">
+        <v>244</v>
+      </c>
+      <c r="D107" t="s">
+        <v>247</v>
+      </c>
+      <c r="E107" t="s">
+        <v>252</v>
+      </c>
+      <c r="F107" t="s">
+        <v>253</v>
+      </c>
+      <c r="G107" t="s">
+        <v>254</v>
+      </c>
+      <c r="H107" t="s">
+        <v>255</v>
+      </c>
+      <c r="I107" t="s">
+        <v>256</v>
+      </c>
+      <c r="J107" t="s">
+        <v>257</v>
+      </c>
+      <c r="K107" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="108" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C108" t="s">
+        <v>248</v>
+      </c>
+      <c r="D108" s="136">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C109" t="s">
+        <v>249</v>
+      </c>
+      <c r="D109" s="136">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C110" s="137" t="s">
+        <v>245</v>
+      </c>
+      <c r="D110" s="136"/>
+    </row>
+    <row r="111" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C111" s="137" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="112" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C112" t="s">
+        <v>250</v>
+      </c>
+      <c r="D112">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="113" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C113" t="s">
+        <v>251</v>
+      </c>
+      <c r="D113">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C105:G105"/>
+  </mergeCells>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
 </worksheet>
